--- a/planning.xlsx
+++ b/planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Bureaublad\flowerpwer1\Flowerpower\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\fowert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8F741E63-8303-4A5C-9359-73F5CEC86EB9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B30466A8-5667-4DE3-9D2F-B4D912E7AB97}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" xr2:uid="{2EB69A4A-0AF8-495A-BCB0-F8D4EFA32CF2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Naam</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>ja</t>
+  </si>
+  <si>
+    <t>Mathijn/Jop</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
   <dimension ref="F6:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +786,7 @@
     </row>
     <row r="14" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
@@ -866,7 +869,7 @@
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>18</v>
